--- a/biology/Histoire de la zoologie et de la botanique/Sylvia_Edlund/Sylvia_Edlund.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Sylvia_Edlund/Sylvia_Edlund.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sylvia Anita Edlund (15 août 1945 - 15 novembre 2014) est une botaniste canadienne[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sylvia Anita Edlund (15 août 1945 - 15 novembre 2014) est une botaniste canadienne.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle nait à Pittsburgh, dans une famille d'origine suédoise, et grandi là-bas et en Ontario. Edlund obtient un BSc à l'université Case Western Reserve et un doctorat en botanique à l'Université de Chicago. Avant d'entreprendre le travail de terrain, Edlund est souvent malade et reste souvent confinée au lit. Elle dit qu'elle a choisi la botanique, car elle pensait qu'elle « [n'aurait] pas à étudier tout ce que j'aurais à chasser ». 
-Elle commence à travailler avec une équipe des Nations Unies chargée de la réalisation d'un inventaire des plantes et des animaux dans le grand nord. De 1974 à 1994, elle travaille dans l'Arctique Canadien pour la Commission géologique du Canada (CGC). Elle est forcée de prendre sa retraite[2] en raison d'une inflammation de l'appendice, qui n'a pas été diagnostiquée à temps et qui a fini par avoir un effet sur sa mémoire à court terme.
-Edlund est une experte en ce qui concerne les modèles de répartitions des plantes dans l'Arctique[1]. Elle a également publié un livre, Common arctic wildflowers of the Northwest Territories (Plantes sauvages communes des territoires du Nord-Ouest de l'Arctique) qu'elle a illustré de ses propres aquarelles. À la fin de sa carrière professionnelle, elle dirige l'Observatoire mondial de l'Arctique pour la CGC[1]. Après sa retraite, elle devient bénévole et travaille avec des personnes handicapées à Ottawa et sur Île Gabriola en Colombie-Britannique. En 2003, elle obtient une Maîtrise en assistance thérapeutique à l'Université Internationale des Médecines Complémentaires[1].
+Elle commence à travailler avec une équipe des Nations Unies chargée de la réalisation d'un inventaire des plantes et des animaux dans le grand nord. De 1974 à 1994, elle travaille dans l'Arctique Canadien pour la Commission géologique du Canada (CGC). Elle est forcée de prendre sa retraite en raison d'une inflammation de l'appendice, qui n'a pas été diagnostiquée à temps et qui a fini par avoir un effet sur sa mémoire à court terme.
+Edlund est une experte en ce qui concerne les modèles de répartitions des plantes dans l'Arctique. Elle a également publié un livre, Common arctic wildflowers of the Northwest Territories (Plantes sauvages communes des territoires du Nord-Ouest de l'Arctique) qu'elle a illustré de ses propres aquarelles. À la fin de sa carrière professionnelle, elle dirige l'Observatoire mondial de l'Arctique pour la CGC. Après sa retraite, elle devient bénévole et travaille avec des personnes handicapées à Ottawa et sur Île Gabriola en Colombie-Britannique. En 2003, elle obtient une Maîtrise en assistance thérapeutique à l'Université Internationale des Médecines Complémentaires.
 Elle meurt à Nanaimo d'une septicémie et d'une insuffisance rénale à l'âge de 69 ans.
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une haute herbe arctique, la Festuca edlundiae, porte ce nom en son honneur[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une haute herbe arctique, la Festuca edlundiae, porte ce nom en son honneur.
 </t>
         </is>
       </c>
